--- a/biology/Médecine/Institut_du_cancer_de_Montréal/Institut_du_cancer_de_Montréal.xlsx
+++ b/biology/Médecine/Institut_du_cancer_de_Montréal/Institut_du_cancer_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_du_cancer_de_Montr%C3%A9al</t>
+          <t>Institut_du_cancer_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut du cancer de Montréal (ICM) est un organisme sans but lucratif qui a pour mission de favoriser la recherche fondamentale et clinique sur le cancer, en plus de préparer la relève dans ce domaine par le biais de l'enseignement et de la formation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_du_cancer_de_Montr%C3%A9al</t>
+          <t>Institut_du_cancer_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut du cancer de Montréal (ICM) est un organisme sans but lucratif engagé depuis plus de 60 ans dans la lutte contre le cancer. Fondé en 1947 à l'Hôpital Notre-Dame par le pathologiste Louis-Charles Simard, l'ICM s'est affilié quelques années plus tard à l'Université de Montréal. Au cours des décennies suivantes, l'Institut a formé une centaine de jeunes chercheurs et a contribué de façon importante à la lutte universelle contre le cancer.
 En 1994, l'ICM et le Centre de recherche de l'Hôpital Notre-Dame se sont unis pour créer le Centre de recherche Louis-Charles Simard, qui allait dorénavant assumer la responsabilité administrative de leurs équipes de recherche respectives. L'ICM a alors modifié sa vocation, l'orientant davantage vers la collecte de fonds privés destinés au financement de la recherche et de la formation en oncologie, au sein du nouveau centre.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_du_cancer_de_Montr%C3%A9al</t>
+          <t>Institut_du_cancer_de_Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Concert contre le cancer</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Concert contre le cancer est un concert-bénéfice au profit de l'Institut du cancer de Montréal. Son objectif principal est de financer le programme Rapatriement de cerveaux.
 </t>
